--- a/Accidentes_transito_full_.xlsx
+++ b/Accidentes_transito_full_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9e6e0322c927b48/Documentos/MIS_UNAM/Segundo_semestre/Series_UNAM_HPi3/Series_UNAM_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{96E17C31-EC95-4F0B-BCCD-1091011AE513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264FE56E-715F-4D00-8137-33670F7C97D0}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{96E17C31-EC95-4F0B-BCCD-1091011AE513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D60673AF-0380-4E48-87F7-57AB7B161DDD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9C482A4-B857-436F-9DC5-C4D7D20035FB}"/>
   </bookViews>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56C9B97-9B1C-404C-8FDA-8FD68F7658A2}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +425,7 @@
         <v>36537</v>
       </c>
       <c r="B2" s="2">
-        <v>311938</v>
+        <v>331938</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
         <v>43112</v>
       </c>
       <c r="B20" s="2">
-        <v>365281</v>
+        <v>355281</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,7 +588,7 @@
         <v>43842</v>
       </c>
       <c r="B22" s="2">
-        <v>301068</v>
+        <v>315068</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
